--- a/ConverterToBin/ConverterToBin/bin/Release/Xlsx/Chapter.xlsx
+++ b/ConverterToBin/ConverterToBin/bin/Release/Xlsx/Chapter.xlsx
@@ -135,10 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,23 +435,22 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -460,7 +458,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>3029001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -468,7 +466,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3029002</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -476,7 +474,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>3029003</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -484,7 +482,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>3029004</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -492,7 +490,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>3029005</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -500,7 +498,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>3029006</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -508,7 +506,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>3029007</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -516,7 +514,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>3029008</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -524,7 +522,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>3029009</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -532,7 +530,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>3029010</v>
       </c>
       <c r="B12" s="1" t="s">
